--- a/results.xlsx
+++ b/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">model   </t>
   </si>
@@ -44,22 +44,19 @@
     <t>logistic regression</t>
   </si>
   <si>
-    <t xml:space="preserve">logistic regression  </t>
-  </si>
-  <si>
     <t xml:space="preserve">bigrams, lowercase, remove stop words  </t>
   </si>
   <si>
-    <t xml:space="preserve">linear SVC     </t>
-  </si>
-  <si>
     <t>bigrams, lowercase, remove stop words</t>
   </si>
   <si>
-    <t xml:space="preserve">logistic regression   </t>
-  </si>
-  <si>
     <t xml:space="preserve">bigrams, lowercase, remove stop words, tune </t>
+  </si>
+  <si>
+    <t xml:space="preserve">linear SVC </t>
+  </si>
+  <si>
+    <t>unigrams, lowercase, remove stop words, tf-idf</t>
   </si>
 </sst>
 </file>
@@ -374,15 +371,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="61.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -410,10 +407,10 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4">
         <v>0.81206999999999996</v>
@@ -421,10 +418,10 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0.80937999999999999</v>
@@ -432,13 +429,24 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0.81155999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>0.75658000000000003</v>
       </c>
     </row>
   </sheetData>
